--- a/Requerimientos_Ptransporte.xlsx
+++ b/Requerimientos_Ptransporte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woolfwp\Desktop\Programacion\Proyectos\Proyecto_Transporte\Modelamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F4D1DCFA-09F0-4508-8018-E12EBDC441AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F40906-9C07-493C-AD55-D8971CE379C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,8 +1023,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
